--- a/Pattern/patternlist.xlsx
+++ b/Pattern/patternlist.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\DensanProject\Pattern\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +39,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +73,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -69,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,8 +98,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -86,18 +122,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -436,13 +483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>0</v>
       </c>
@@ -459,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -476,7 +523,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -493,7 +540,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -510,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -527,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -548,7 +595,1238 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>-1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>-1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -561,35 +1839,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -601,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -612,30 +1890,30 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -643,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -652,9 +1930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -667,6 +1945,990 @@
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>-1</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
